--- a/Cohort1/MetaData/MelanomaCohort1_FOVannotations.xlsx
+++ b/Cohort1/MetaData/MelanomaCohort1_FOVannotations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Maryam\Analysis\Melanoma_IL2_v2\MetaData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\Cohort1\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5AF65EF5-0F56-454D-B676-746256213A68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="24">
   <si>
     <t>Interface</t>
   </si>
@@ -93,12 +94,15 @@
   </si>
   <si>
     <t>\\bic.mskcc.org\HaloData\Melanoma_IL2__Final\Cohort1\HaloCoordinates</t>
+  </si>
+  <si>
+    <t>FOV_exclusion_post_analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,8 +505,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -514,16 +518,16 @@
     <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="17.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28" style="1" customWidth="1"/>
-    <col min="12" max="12" width="75.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="8" width="23.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="28" style="1" customWidth="1"/>
+    <col min="13" max="13" width="75.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -546,22 +550,25 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -575,14 +582,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -600,7 +607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -614,14 +621,14 @@
         <v>0</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -635,14 +642,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>6</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -656,17 +663,20 @@
         <v>0</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -680,14 +690,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -701,14 +711,14 @@
         <v>0</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -722,14 +732,14 @@
         <v>0</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -743,14 +753,14 @@
         <v>0</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -764,14 +774,14 @@
         <v>0</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -785,20 +795,23 @@
         <v>0</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="H12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -812,17 +825,20 @@
         <v>0</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="H13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -836,17 +852,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="H14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -860,17 +879,20 @@
         <v>0</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="H15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -885,7 +907,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -900,7 +922,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -915,7 +937,7 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -929,11 +951,14 @@
         <v>2</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="H19" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -947,11 +972,14 @@
         <v>2</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="H20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -965,11 +993,14 @@
         <v>2</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="H21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -983,11 +1014,14 @@
         <v>2</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="H22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1001,11 +1035,14 @@
         <v>2</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="H23" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1019,11 +1056,14 @@
         <v>2</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="H24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1037,11 +1077,14 @@
         <v>2</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="H25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1099,7 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1071,7 +1114,7 @@
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1103,17 +1146,17 @@
         <v>0</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
       <c r="K29" s="1">
         <v>1</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -1127,14 +1170,14 @@
         <v>0</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>6</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,14 +1191,14 @@
         <v>0</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="K31" s="1">
-        <v>2</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -1191,7 +1234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,17 +1302,17 @@
         <v>0</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="I37" s="1">
-        <v>2</v>
-      </c>
-      <c r="K37" s="1">
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
         <v>4</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -1283,14 +1326,14 @@
         <v>0</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>3</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
@@ -1304,14 +1347,14 @@
         <v>0</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>6</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,17 +1368,17 @@
         <v>0</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -1353,7 +1396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +1411,7 @@
       </c>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1426,7 @@
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1441,7 @@
       </c>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
@@ -1412,14 +1455,14 @@
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -1433,17 +1476,17 @@
         <v>0</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>5</v>
       </c>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,17 +1500,17 @@
         <v>0</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>4</v>
       </c>
-      <c r="K47" s="1">
-        <v>2</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
@@ -1481,17 +1524,17 @@
         <v>0</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="I48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1">
-        <v>2</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -1505,17 +1548,17 @@
         <v>0</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="J49" s="1">
-        <v>1</v>
-      </c>
       <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
         <v>4</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
@@ -1529,20 +1572,20 @@
         <v>0</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="I50" s="1">
-        <v>1</v>
-      </c>
       <c r="J50" s="1">
         <v>1</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>15</v>
       </c>
@@ -1560,7 +1603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1574,14 +1617,14 @@
         <v>2</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,14 +1638,14 @@
         <v>2</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="I53" s="1">
-        <v>1</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>15</v>
       </c>
@@ -1617,7 +1660,7 @@
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
@@ -1632,7 +1675,7 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>15</v>
       </c>
@@ -1646,14 +1689,14 @@
         <v>2</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="I56" s="1">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>15</v>
       </c>
@@ -1667,17 +1710,20 @@
         <v>10</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="I57" s="1">
-        <v>1</v>
+      <c r="H57" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>15</v>
       </c>
@@ -1691,17 +1737,20 @@
         <v>10</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="I58" s="1">
-        <v>2</v>
+      <c r="H58" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>15</v>
       </c>
@@ -1715,17 +1764,20 @@
         <v>10</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="I59" s="1">
-        <v>1</v>
+      <c r="H59" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>15</v>
       </c>
@@ -1739,14 +1791,17 @@
         <v>10</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="J60" s="1">
-        <v>1</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -1761,7 +1816,7 @@
       </c>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -1776,7 +1831,7 @@
       </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,7 +1846,7 @@
       </c>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -1806,7 +1861,7 @@
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1876,7 @@
       </c>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
@@ -1836,7 +1891,7 @@
       </c>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
@@ -1851,7 +1906,7 @@
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,7 +1921,7 @@
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1936,7 @@
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -1896,7 +1951,7 @@
       </c>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
@@ -1928,14 +1983,14 @@
         <v>1</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="I72" s="1">
-        <v>1</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -1949,14 +2004,14 @@
         <v>1</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="I73" s="1">
-        <v>1</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>17</v>
       </c>
@@ -1971,7 +2026,7 @@
       </c>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
@@ -1986,7 +2041,7 @@
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
@@ -2001,7 +2056,7 @@
       </c>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -2016,7 +2071,7 @@
       </c>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>17</v>
       </c>
@@ -2031,7 +2086,7 @@
       </c>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>17</v>
       </c>
@@ -2046,7 +2101,7 @@
       </c>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
@@ -2061,7 +2116,7 @@
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>17</v>
       </c>
@@ -2076,7 +2131,7 @@
       </c>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>17</v>
       </c>
@@ -2091,7 +2146,7 @@
       </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>17</v>
       </c>
@@ -2105,14 +2160,17 @@
         <v>10</v>
       </c>
       <c r="E83" s="4"/>
-      <c r="J83" s="1">
-        <v>1</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
@@ -2126,14 +2184,17 @@
         <v>10</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="J84" s="1">
-        <v>1</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>17</v>
       </c>
@@ -2151,7 +2212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>17</v>
       </c>
@@ -2171,43 +2232,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L4" r:id="rId2"/>
-    <hyperlink ref="L5" r:id="rId3"/>
-    <hyperlink ref="L6" r:id="rId4"/>
-    <hyperlink ref="L7" r:id="rId5"/>
-    <hyperlink ref="L8" r:id="rId6"/>
-    <hyperlink ref="L9" r:id="rId7"/>
-    <hyperlink ref="L10" r:id="rId8"/>
-    <hyperlink ref="L11" r:id="rId9"/>
-    <hyperlink ref="L12" r:id="rId10"/>
-    <hyperlink ref="L13" r:id="rId11"/>
-    <hyperlink ref="L14" r:id="rId12"/>
-    <hyperlink ref="L15" r:id="rId13"/>
-    <hyperlink ref="L29" r:id="rId14"/>
-    <hyperlink ref="L30" r:id="rId15"/>
-    <hyperlink ref="L31" r:id="rId16"/>
-    <hyperlink ref="L37" r:id="rId17"/>
-    <hyperlink ref="L38" r:id="rId18"/>
-    <hyperlink ref="L39" r:id="rId19"/>
-    <hyperlink ref="L40" r:id="rId20"/>
-    <hyperlink ref="L45" r:id="rId21"/>
-    <hyperlink ref="L46" r:id="rId22"/>
-    <hyperlink ref="L47" r:id="rId23"/>
-    <hyperlink ref="L48" r:id="rId24"/>
-    <hyperlink ref="L49" r:id="rId25"/>
-    <hyperlink ref="L50" r:id="rId26"/>
-    <hyperlink ref="L52" r:id="rId27"/>
-    <hyperlink ref="L53" r:id="rId28"/>
-    <hyperlink ref="L56" r:id="rId29"/>
-    <hyperlink ref="L57" r:id="rId30"/>
-    <hyperlink ref="L58" r:id="rId31"/>
-    <hyperlink ref="L59" r:id="rId32"/>
-    <hyperlink ref="L60" r:id="rId33"/>
-    <hyperlink ref="L72" r:id="rId34"/>
-    <hyperlink ref="L73" r:id="rId35"/>
-    <hyperlink ref="L83" r:id="rId36"/>
-    <hyperlink ref="L84" r:id="rId37"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M38" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M46" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M47" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M48" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M56" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M57" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="M58" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M59" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M60" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M72" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M73" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M83" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M84" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
